--- a/Data/CDRIssuanceinput.xlsx
+++ b/Data/CDRIssuanceinput.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Transaction Number</t>
   </si>
   <si>
     <t>FT2316813QQRQ1D7</t>
+  </si>
+  <si>
+    <t>FT231700YDVH87JP</t>
   </si>
 </sst>
 </file>
@@ -62,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -78,6 +81,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CDRIssuanceinput.xlsx
+++ b/Data/CDRIssuanceinput.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>FT231700YDVH87JP</t>
+  </si>
+  <si>
+    <t>FT232500M4638RWZ</t>
   </si>
 </sst>
 </file>
@@ -65,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -86,6 +89,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CDRIssuanceinput.xlsx
+++ b/Data/CDRIssuanceinput.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>FT232500M4638RWZ</t>
+  </si>
+  <si>
+    <t>FT232500M2TTWGFH</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -94,6 +97,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
